--- a/wisdm/results/results_evaluation.xlsx
+++ b/wisdm/results/results_evaluation.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="PGAN3" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="PGAN2" sheetId="3" r:id="rId3"/>
+    <sheet name="PGAN1" sheetId="4" r:id="rId4"/>
+    <sheet name="compaire" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="163">
   <si>
     <t>Wisdm</t>
   </si>
@@ -456,9 +458,6 @@
     <t xml:space="preserve"> 85.03</t>
   </si>
   <si>
-    <t>89.11</t>
-  </si>
-  <si>
     <t>86.39</t>
   </si>
   <si>
@@ -481,6 +480,33 @@
   </si>
   <si>
     <t>26.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activity</t>
+  </si>
+  <si>
+    <t>approch</t>
+  </si>
+  <si>
+    <t>VISEE</t>
+  </si>
+  <si>
+    <t>InfoBotnk</t>
+  </si>
+  <si>
+    <t>95.17</t>
+  </si>
+  <si>
+    <t>32.43</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>hasc dataset</t>
+  </si>
+  <si>
+    <t>3.40</t>
   </si>
 </sst>
 </file>
@@ -736,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,6 +898,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2351,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3198,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>116</v>
@@ -3213,7 +3246,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
         <v>117</v>
@@ -3315,7 +3348,7 @@
         <v>53</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T7" s="46"/>
     </row>
@@ -3327,7 +3360,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
@@ -3336,7 +3369,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>119</v>
@@ -3362,8 +3395,8 @@
       <c r="N8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>146</v>
+      <c r="O8" s="10">
+        <v>90</v>
       </c>
       <c r="P8" t="s">
         <v>119</v>
@@ -3372,7 +3405,7 @@
         <v>54</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T8" s="46"/>
     </row>
@@ -3384,7 +3417,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
@@ -3420,7 +3453,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P9" t="s">
         <v>120</v>
@@ -3439,4 +3472,549 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="T2" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="T3" s="46"/>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="T4" s="46"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="T5" s="46"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="T6" s="46"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="T7" s="46"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="T8" s="46"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="T9" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T2:T9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="49">
+        <v>90</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="49">
+        <v>100</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="49">
+        <v>100</v>
+      </c>
+      <c r="E7" s="49">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/wisdm/results/results_evaluation.xlsx
+++ b/wisdm/results/results_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="172">
   <si>
     <t>Wisdm</t>
   </si>
@@ -507,13 +507,40 @@
   </si>
   <si>
     <t>3.40</t>
+  </si>
+  <si>
+    <t>HAR UCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNN </t>
+  </si>
+  <si>
+    <t>olympus</t>
+  </si>
+  <si>
+    <t>Toward privacy in IoT mobile devices for activity recognition</t>
+  </si>
+  <si>
+    <t>93.75</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>Privacy-Preserving Collaborative Deep Learning with Application to Human Activity Recognition</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>100/ep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +576,14 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -846,6 +881,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,13 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1211,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:N21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1227,70 +1264,70 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
@@ -1341,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
@@ -1677,44 +1714,52 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10">
+        <v>100</v>
+      </c>
       <c r="I14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
       <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
@@ -1736,19 +1781,27 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="G15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="I15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="K15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1770,19 +1823,27 @@
       <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="G16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="K16" s="3" t="s">
         <v>58</v>
       </c>
@@ -1806,19 +1867,27 @@
       <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="K17" s="3" t="s">
         <v>59</v>
       </c>
@@ -1840,19 +1909,27 @@
       <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="I18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="K18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1874,19 +1951,27 @@
       <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="I19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="K19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1908,19 +1993,27 @@
       <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="10">
+        <v>90</v>
+      </c>
       <c r="I20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="K20" s="3" t="s">
         <v>62</v>
       </c>
@@ -1942,19 +2035,27 @@
       <c r="C21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="K21" s="3" t="s">
         <v>63</v>
       </c>
@@ -1969,27 +2070,27 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
@@ -2384,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2605,7 @@
       <c r="R2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2563,7 +2664,7 @@
       <c r="R3" s="12">
         <v>0</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2620,7 +2721,7 @@
       <c r="R4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="46"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2677,7 +2778,7 @@
       <c r="R5" s="12">
         <v>0</v>
       </c>
-      <c r="T5" s="46"/>
+      <c r="T5" s="49"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2734,7 +2835,7 @@
       <c r="R6" s="12">
         <v>0</v>
       </c>
-      <c r="T6" s="46"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2791,7 +2892,7 @@
       <c r="R7" s="12">
         <v>0</v>
       </c>
-      <c r="T7" s="46"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2848,7 +2949,7 @@
       <c r="R8" s="12">
         <v>0</v>
       </c>
-      <c r="T8" s="46"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2905,7 +3006,7 @@
       <c r="R9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="46"/>
+      <c r="T9" s="49"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H11" s="28"/>
@@ -2943,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,7 +3164,7 @@
       <c r="R2" s="12">
         <v>0</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3122,7 +3223,7 @@
       <c r="R3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T3" s="46"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3179,7 +3280,7 @@
       <c r="R4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="T4" s="46"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3236,7 +3337,7 @@
       <c r="R5" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="T5" s="46"/>
+      <c r="T5" s="49"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3293,7 +3394,7 @@
       <c r="R6" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="46"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3350,7 +3451,7 @@
       <c r="R7" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T7" s="46"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3407,7 +3508,7 @@
       <c r="R8" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="46"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3464,7 +3565,7 @@
       <c r="R9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T9" s="46"/>
+      <c r="T9" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3478,7 +3579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -3587,7 +3688,7 @@
         <v>51</v>
       </c>
       <c r="R2" s="12"/>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="49" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3634,7 +3735,7 @@
         <v>48</v>
       </c>
       <c r="R3" s="12"/>
-      <c r="T3" s="46"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3679,7 +3780,7 @@
         <v>49</v>
       </c>
       <c r="R4" s="12"/>
-      <c r="T4" s="46"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3724,7 +3825,7 @@
         <v>50</v>
       </c>
       <c r="R5" s="12"/>
-      <c r="T5" s="46"/>
+      <c r="T5" s="49"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3769,7 +3870,7 @@
         <v>52</v>
       </c>
       <c r="R6" s="12"/>
-      <c r="T6" s="46"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3814,7 +3915,7 @@
         <v>53</v>
       </c>
       <c r="R7" s="12"/>
-      <c r="T7" s="46"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3859,7 +3960,7 @@
         <v>54</v>
       </c>
       <c r="R8" s="12"/>
-      <c r="T8" s="46"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3904,7 +4005,7 @@
         <v>55</v>
       </c>
       <c r="R9" s="12"/>
-      <c r="T9" s="46"/>
+      <c r="T9" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3916,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,93 +4028,348 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="F1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="29">
+        <v>87</v>
+      </c>
+      <c r="O4" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D5" s="29">
         <v>90</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E5" s="29" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" t="s">
+      <c r="F5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="49">
-        <v>100</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D6" s="29">
+        <v>100</v>
+      </c>
+      <c r="E6" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" t="s">
+      <c r="F6" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="29">
+        <v>100</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D7" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E7" s="29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" t="s">
+      <c r="F7" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="29">
+        <v>95</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="29">
+        <v>100</v>
+      </c>
+      <c r="O7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="49">
-        <v>100</v>
-      </c>
-      <c r="E7" s="49">
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
         <v>40</v>
       </c>
+      <c r="F8" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/wisdm/results/results_evaluation.xlsx
+++ b/wisdm/results/results_evaluation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="236">
   <si>
     <t>Wisdm</t>
   </si>
@@ -713,13 +713,28 @@
   </si>
   <si>
     <t>92.5</t>
+  </si>
+  <si>
+    <t>43.14</t>
+  </si>
+  <si>
+    <t>97.46</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>75.27</t>
+  </si>
+  <si>
+    <t>176.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +785,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1037,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,6 +1194,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,12 +1269,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1240,12 +1278,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
@@ -1555,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T172"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1600,8 @@
     <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="9" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="73" customWidth="1"/>
+    <col min="5" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
@@ -1572,96 +1609,96 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="56" t="s">
+      <c r="C2" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="50" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="48" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="48" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="48" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="48" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="T3" s="49"/>
+      <c r="T3" s="53"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
@@ -1771,11 +1808,15 @@
       <c r="O5" s="3">
         <v>95</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="10">
+        <v>100</v>
+      </c>
       <c r="Q5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
       <c r="S5" s="5" t="s">
         <v>196</v>
       </c>
@@ -1825,11 +1866,15 @@
       <c r="O6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="10">
+        <v>100</v>
+      </c>
       <c r="Q6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
       <c r="S6" s="5" t="s">
         <v>189</v>
       </c>
@@ -1879,11 +1924,15 @@
       <c r="O7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="Q7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
       <c r="S7" s="5" t="s">
         <v>190</v>
       </c>
@@ -1905,7 +1954,7 @@
       <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="72">
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1935,11 +1984,15 @@
       <c r="O8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="10">
+        <v>100</v>
+      </c>
       <c r="Q8" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
       <c r="S8" s="5" t="s">
         <v>191</v>
       </c>
@@ -1959,7 +2012,7 @@
       <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="72">
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1989,11 +2042,15 @@
       <c r="O9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="10">
+        <v>100</v>
+      </c>
       <c r="Q9" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
       <c r="S9" s="5" t="s">
         <v>192</v>
       </c>
@@ -2013,7 +2070,7 @@
       <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="72">
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2043,11 +2100,15 @@
       <c r="O10" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="10">
+        <v>100</v>
+      </c>
       <c r="Q10" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
       <c r="S10" s="5" t="s">
         <v>193</v>
       </c>
@@ -2067,7 +2128,7 @@
       <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="72">
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -2097,11 +2158,15 @@
       <c r="O11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="10">
+        <v>100</v>
+      </c>
       <c r="Q11" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="S11" s="5" t="s">
         <v>194</v>
       </c>
@@ -2121,7 +2186,7 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="72">
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2151,11 +2216,15 @@
       <c r="O12" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="Q12" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
       <c r="S12" s="5" t="s">
         <v>195</v>
       </c>
@@ -2181,37 +2250,41 @@
       <c r="O13" s="3">
         <v>95</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="10">
+        <v>100</v>
+      </c>
       <c r="Q13" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
       <c r="S13" s="5">
         <v>94</v>
       </c>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -2716,26 +2789,26 @@
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
@@ -3279,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,12 +3457,16 @@
       <c r="T2" s="3">
         <v>95</v>
       </c>
-      <c r="U2" s="10"/>
+      <c r="U2" s="10">
+        <v>100</v>
+      </c>
       <c r="W2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Z2" s="67" t="s">
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="69" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3436,12 +3513,16 @@
       <c r="T3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="10"/>
+      <c r="U3" s="10">
+        <v>100</v>
+      </c>
       <c r="W3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Z3" s="67"/>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3486,12 +3567,16 @@
       <c r="T4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="10"/>
+      <c r="U4" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="W4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Z4" s="67"/>
+      <c r="X4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="69"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3536,12 +3621,16 @@
       <c r="T5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="U5" s="10"/>
+      <c r="U5" s="10">
+        <v>100</v>
+      </c>
       <c r="W5" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Z5" s="67"/>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="69"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3586,12 +3675,16 @@
       <c r="T6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="U6" s="10"/>
+      <c r="U6" s="10">
+        <v>100</v>
+      </c>
       <c r="W6" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Z6" s="67"/>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="69"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3636,12 +3729,16 @@
       <c r="T7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="10">
+        <v>100</v>
+      </c>
       <c r="W7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Z7" s="67"/>
+      <c r="X7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="69"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3686,12 +3783,16 @@
       <c r="T8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U8" s="10"/>
+      <c r="U8" s="10">
+        <v>100</v>
+      </c>
       <c r="W8" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Z8" s="67"/>
+      <c r="X8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="69"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -3736,12 +3837,16 @@
       <c r="T9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="W9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="X9" s="12"/>
-      <c r="Z9" s="67"/>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="69"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -3754,7 +3859,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="10"/>
       <c r="Q10" s="11"/>
@@ -3762,12 +3869,16 @@
       <c r="T10" s="3">
         <v>95</v>
       </c>
-      <c r="U10" s="10"/>
+      <c r="U10" s="10">
+        <v>100</v>
+      </c>
       <c r="W10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="X10" s="12"/>
-      <c r="Z10" s="67"/>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H11" s="28"/>
@@ -3919,7 +4030,7 @@
       <c r="X2" s="12">
         <v>0</v>
       </c>
-      <c r="Z2" s="68" t="s">
+      <c r="Z2" s="70" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3975,7 +4086,7 @@
       <c r="X3" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Z3" s="68"/>
+      <c r="Z3" s="70"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4029,7 +4140,7 @@
       <c r="X4" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="Z4" s="68"/>
+      <c r="Z4" s="70"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4083,7 +4194,7 @@
       <c r="X5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="Z5" s="68"/>
+      <c r="Z5" s="70"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4137,7 +4248,7 @@
       <c r="X6" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="Z6" s="68"/>
+      <c r="Z6" s="70"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4191,7 +4302,7 @@
       <c r="X7" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Z7" s="68"/>
+      <c r="Z7" s="70"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4245,7 +4356,7 @@
       <c r="X8" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Z8" s="68"/>
+      <c r="Z8" s="70"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4299,7 +4410,7 @@
       <c r="X9" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="Z9" s="68"/>
+      <c r="Z9" s="70"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4329,7 +4440,7 @@
       <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Z10" s="68"/>
+      <c r="Z10" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4370,7 +4481,7 @@
       <c r="U2" s="10"/>
       <c r="W2" s="11"/>
       <c r="X2" s="12"/>
-      <c r="Z2" s="69"/>
+      <c r="Z2" s="71"/>
     </row>
     <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -4389,7 +4500,7 @@
       <c r="U3" s="10"/>
       <c r="W3" s="11"/>
       <c r="X3" s="12"/>
-      <c r="Z3" s="69"/>
+      <c r="Z3" s="71"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -4408,7 +4519,7 @@
       <c r="U4" s="10"/>
       <c r="W4" s="11"/>
       <c r="X4" s="12"/>
-      <c r="Z4" s="69"/>
+      <c r="Z4" s="71"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
@@ -4427,7 +4538,7 @@
       <c r="U5" s="10"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
-      <c r="Z5" s="69"/>
+      <c r="Z5" s="71"/>
     </row>
     <row r="6" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
@@ -4446,7 +4557,7 @@
       <c r="U6" s="10"/>
       <c r="W6" s="11"/>
       <c r="X6" s="12"/>
-      <c r="Z6" s="69"/>
+      <c r="Z6" s="71"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -4465,7 +4576,7 @@
       <c r="U7" s="10"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Z7" s="69"/>
+      <c r="Z7" s="71"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
@@ -4484,7 +4595,7 @@
       <c r="U8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Z8" s="69"/>
+      <c r="Z8" s="71"/>
     </row>
     <row r="9" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -4503,7 +4614,7 @@
       <c r="U9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Z9" s="69"/>
+      <c r="Z9" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4517,8 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,7 +4796,9 @@
       <c r="R3" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="S3" s="35"/>
+      <c r="S3" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="T3" s="36"/>
       <c r="U3" s="32" t="s">
         <v>152</v>
@@ -4815,8 +4928,12 @@
       <c r="R5" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
+      <c r="S5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>235</v>
+      </c>
       <c r="U5" s="32" t="s">
         <v>152</v>
       </c>
@@ -4888,8 +5005,12 @@
       <c r="R6" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
+      <c r="S6" s="35">
+        <v>100</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="U6" s="32" t="s">
         <v>152</v>
       </c>
@@ -4899,8 +5020,12 @@
       <c r="W6" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="36"/>
+      <c r="X6" s="35">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="7" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -5071,10 +5196,10 @@
       <c r="R9" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="S9" s="70">
+      <c r="S9" s="44">
         <v>80</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="45">
         <v>49</v>
       </c>
     </row>
@@ -5088,10 +5213,10 @@
       <c r="R10" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="S10" s="70">
+      <c r="S10" s="44">
         <v>93</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="45">
         <v>38</v>
       </c>
     </row>
@@ -5105,10 +5230,10 @@
       <c r="R11" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="S11" s="70" t="s">
+      <c r="S11" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="45">
         <v>58</v>
       </c>
     </row>

--- a/wisdm/results/results_evaluation.xlsx
+++ b/wisdm/results/results_evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="310">
   <si>
     <t>Wisdm</t>
   </si>
@@ -243,12 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">characteristic </t>
-  </si>
-  <si>
-    <t>PGAN3/classifier</t>
-  </si>
-  <si>
-    <t>PGAN2/zeros p</t>
   </si>
   <si>
     <t xml:space="preserve"> 94.30</t>
@@ -728,6 +722,234 @@
   </si>
   <si>
     <t>176.03</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>46.67</t>
+  </si>
+  <si>
+    <t>33.33</t>
+  </si>
+  <si>
+    <t>44.44</t>
+  </si>
+  <si>
+    <t>51.11</t>
+  </si>
+  <si>
+    <t>89.33</t>
+  </si>
+  <si>
+    <t>89.30</t>
+  </si>
+  <si>
+    <t>90.53</t>
+  </si>
+  <si>
+    <t>90.54</t>
+  </si>
+  <si>
+    <t>DYSAN: Dynamically sanitizing motion sensor data against sensitive inferences through adversarial networks</t>
+  </si>
+  <si>
+    <t>89.10</t>
+  </si>
+  <si>
+    <t>89.11</t>
+  </si>
+  <si>
+    <t>39.49</t>
+  </si>
+  <si>
+    <t>21.36</t>
+  </si>
+  <si>
+    <t>51.39</t>
+  </si>
+  <si>
+    <t>32.45</t>
+  </si>
+  <si>
+    <t>59.54</t>
+  </si>
+  <si>
+    <t>51.64</t>
+  </si>
+  <si>
+    <t>32.20</t>
+  </si>
+  <si>
+    <t>39.05</t>
+  </si>
+  <si>
+    <t>24.77</t>
+  </si>
+  <si>
+    <t>53.69</t>
+  </si>
+  <si>
+    <t>33.18</t>
+  </si>
+  <si>
+    <t>49.39</t>
+  </si>
+  <si>
+    <t>55.67</t>
+  </si>
+  <si>
+    <t>34.90</t>
+  </si>
+  <si>
+    <t>40.82</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>49.89</t>
+  </si>
+  <si>
+    <t>28.24</t>
+  </si>
+  <si>
+    <t>48.52</t>
+  </si>
+  <si>
+    <t>61.46</t>
+  </si>
+  <si>
+    <t>33.72</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>63.92</t>
+  </si>
+  <si>
+    <t>98.57</t>
+  </si>
+  <si>
+    <t>89.20</t>
+  </si>
+  <si>
+    <t>75.85</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>97.33</t>
+  </si>
+  <si>
+    <t>60.66</t>
+  </si>
+  <si>
+    <t>99.23</t>
+  </si>
+  <si>
+    <t>64.15</t>
+  </si>
+  <si>
+    <t>98.88</t>
+  </si>
+  <si>
+    <t>99.58</t>
+  </si>
+  <si>
+    <t>96.85</t>
+  </si>
+  <si>
+    <t>99.93</t>
+  </si>
+  <si>
+    <t>90.77</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>97.79</t>
+  </si>
+  <si>
+    <t>54.73</t>
+  </si>
+  <si>
+    <t>98.44</t>
+  </si>
+  <si>
+    <t>97.66</t>
+  </si>
+  <si>
+    <t>81.84</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>RMSAge</t>
+  </si>
+  <si>
+    <t>GMSAge</t>
+  </si>
+  <si>
+    <t>PGAN3/classifier/hiding a single private attribute</t>
+  </si>
+  <si>
+    <t>PGAN3/classifier/ hiding multiple private attributes simultaneously</t>
+  </si>
+  <si>
+    <t>PGAN2/ hiding multiple private attributes simultaneously</t>
+  </si>
+  <si>
+    <t>PGAN2/hiding a single private attribute</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1046,30 +1268,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,24 +1322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,34 +1386,35 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,10 +1423,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1451,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,6 +1489,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1278,10 +1507,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
@@ -1589,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T172"/>
+  <dimension ref="A1:AZ175"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1600,114 +1825,244 @@
     <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="73" customWidth="1"/>
-    <col min="5" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="19" width="18.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="41" customWidth="1"/>
+    <col min="5" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="27" width="20.42578125" customWidth="1"/>
+    <col min="28" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="40" width="19" customWidth="1"/>
+    <col min="41" max="41" width="18.85546875" customWidth="1"/>
+    <col min="42" max="44" width="19" customWidth="1"/>
+    <col min="45" max="45" width="18.85546875" customWidth="1"/>
+    <col min="46" max="48" width="19" customWidth="1"/>
+    <col min="49" max="49" width="18.85546875" customWidth="1"/>
+    <col min="50" max="50" width="19" customWidth="1"/>
+    <col min="51" max="51" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C1" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="1"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="60" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="2"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="56" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="54"/>
+      <c r="U3" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="V3" s="52"/>
+      <c r="W3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="56" t="s">
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="52" t="s">
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="T3" s="53"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="2"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1755,19 +2110,112 @@
       <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>151</v>
+      <c r="U4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY4" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>24</v>
@@ -1793,36 +2241,107 @@
       <c r="J5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="4">
-        <v>100</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="AB5" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="AD5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="3">
         <v>95</v>
       </c>
-      <c r="P5" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R5" s="12">
+      <c r="AF5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH5" s="12">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI5" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
@@ -1851,36 +2370,107 @@
       <c r="J6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="4">
-        <v>100</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="AB6" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="6">
+      <c r="AD6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P6" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="R6" s="12">
+      <c r="AE6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH6" s="12">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1909,36 +2499,107 @@
       <c r="J7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="AB7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R7" s="12">
+      <c r="AC7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH7" s="12">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY7" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1954,7 +2615,7 @@
       <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="40">
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1969,36 +2630,107 @@
       <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="4">
-        <v>100</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="AB8" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="6">
+      <c r="AD8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P8" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R8" s="12">
+      <c r="AE8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH8" s="12">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>100</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>100</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AY8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2744,7 @@
       <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="40">
         <v>0</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -2027,36 +2759,107 @@
       <c r="J9" s="12">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="4">
-        <v>100</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="AB9" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="6">
+      <c r="AD9" s="6">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R9" s="12">
+      <c r="AE9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH9" s="12">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
@@ -2070,7 +2873,7 @@
       <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="40">
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2085,36 +2888,107 @@
       <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="4">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="AB10" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="6">
+      <c r="AD10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" s="12">
+      <c r="AE10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH10" s="12">
         <v>0</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV10" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AY10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +3002,7 @@
       <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="40">
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -2143,36 +3017,107 @@
       <c r="J11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="4">
-        <v>100</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="AB11" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="6">
+      <c r="AD11" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AE11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>100</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>100</v>
+      </c>
+      <c r="AW11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AX11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AY11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -2186,7 +3131,7 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="40">
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2201,630 +3146,948 @@
       <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="4">
-        <v>100</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="AB12" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="6">
+      <c r="AD12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" s="12">
+      <c r="AE12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH12" s="12">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="AI12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR12" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT12" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX12" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="10">
+        <v>100</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="3">
+      <c r="O13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="3">
         <v>95</v>
       </c>
-      <c r="P13" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="R13" s="12">
+      <c r="AF13" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH13" s="12">
         <v>0</v>
       </c>
-      <c r="S13" s="5">
+      <c r="AI13" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>100</v>
+      </c>
+      <c r="AK13" s="5">
         <v>94</v>
       </c>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C14" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="AL13" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>100</v>
+      </c>
+      <c r="AS13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV13" s="10">
+        <v>100</v>
+      </c>
+      <c r="AW13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C14" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="58"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="52"/>
+      <c r="M15" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="R15" s="61"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AE15" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="2"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AE16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AE17" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AE18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="10">
-        <v>100</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="3">
-        <v>95</v>
-      </c>
-      <c r="P15" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" s="3" t="s">
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AE19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P16" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="S16" s="5" t="s">
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AE20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="S17" s="5" t="s">
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AE21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="S18" s="5" t="s">
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AE22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="10">
-        <v>90</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="3">
-        <v>95</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="R23" s="12">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>94</v>
-      </c>
-      <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C24" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AE23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AE24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="7" t="s">
         <v>39</v>
       </c>
@@ -2833,421 +4096,2793 @@
         <v>50</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AE25" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="5">
+        <v>94</v>
+      </c>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AY26" s="42"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="C27" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="58"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="42"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="10">
+        <v>100</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5" t="s">
+      <c r="AB28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="3">
+      <c r="AD28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" s="3">
         <v>95</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="AF28" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="I29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S29" s="3"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH29" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF30" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH32" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7" t="s">
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11" t="s">
+      <c r="H33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="3" t="s">
+      <c r="J33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5" t="s">
+      <c r="AB33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="3" t="s">
+      <c r="AD33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="10">
+        <v>90</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE34" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5" t="s">
+      <c r="AF34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="5" t="s">
+      <c r="AH34" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF35" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="10">
+        <v>100</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="5">
+        <v>94</v>
+      </c>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="C37" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
+      <c r="AU37" s="57"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="57"/>
+      <c r="AX37" s="58"/>
+      <c r="AZ37" s="42"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="60"/>
+      <c r="I38" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="52"/>
+      <c r="K38" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" s="52"/>
+      <c r="M38" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="R38" s="61"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AE38" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN38" s="52"/>
+      <c r="AO38" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP38" s="52"/>
+      <c r="AQ38" s="2"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AE39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ39" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="47"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AE40" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AE41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AE42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AE43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AE44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AE45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="9" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="47"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AE46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AE47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="47"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AE48" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="5">
+        <v>94</v>
+      </c>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="14:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="47"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="47"/>
+    </row>
+    <row r="52" spans="14:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="47"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="47"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="47"/>
+      <c r="Y52" s="47"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="47"/>
+      <c r="AE52" s="47"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="47"/>
+    </row>
+    <row r="53" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N53" s="47"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="47"/>
+      <c r="Y53" s="47"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="47"/>
+      <c r="AE53" s="47"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="47"/>
+    </row>
+    <row r="54" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="14:34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="P75" s="48"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="48"/>
+      <c r="V75" s="48"/>
+      <c r="W75" s="48"/>
+      <c r="X75" s="48"/>
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="48"/>
+      <c r="AE75" s="48"/>
+      <c r="AF75" s="47"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="48"/>
+      <c r="AY75" s="42"/>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="C76" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="78"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="78"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="78"/>
+      <c r="U76" s="78"/>
+      <c r="V76" s="78"/>
+      <c r="W76" s="78"/>
+      <c r="X76" s="78"/>
+      <c r="Y76" s="78"/>
+      <c r="Z76" s="78"/>
+      <c r="AA76" s="78"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="78"/>
+      <c r="AD76" s="78"/>
+      <c r="AE76" s="78"/>
+      <c r="AF76" s="78"/>
+      <c r="AG76" s="78"/>
+      <c r="AH76" s="78"/>
+      <c r="AI76" s="78"/>
+      <c r="AJ76" s="78"/>
+      <c r="AK76" s="78"/>
+      <c r="AL76" s="78"/>
+      <c r="AM76" s="78"/>
+      <c r="AN76" s="78"/>
+      <c r="AO76" s="78"/>
+      <c r="AP76" s="78"/>
+      <c r="AQ76" s="78"/>
+      <c r="AR76" s="78"/>
+      <c r="AS76" s="78"/>
+      <c r="AT76" s="78"/>
+      <c r="AU76" s="78"/>
+      <c r="AV76" s="78"/>
+      <c r="AW76" s="78"/>
+      <c r="AX76" s="79"/>
+      <c r="AY76" s="49"/>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="3">
+        <v>95</v>
+      </c>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN77" s="10"/>
+      <c r="AO77" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR77" s="10"/>
+      <c r="AS77" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV77" s="10"/>
+      <c r="AW77" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX77" s="6"/>
+      <c r="AY77" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN78" s="10"/>
+      <c r="AO78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR78" s="10"/>
+      <c r="AS78" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV78" s="10"/>
+      <c r="AW78" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN79" s="10"/>
+      <c r="AO79" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR79" s="10"/>
+      <c r="AS79" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV79" s="10"/>
+      <c r="AW79" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" s="10"/>
+      <c r="I80" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN80" s="10"/>
+      <c r="AO80" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP80" s="6"/>
+      <c r="AQ80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR80" s="10"/>
+      <c r="AS80" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT80" s="6"/>
+      <c r="AU80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV80" s="10"/>
+      <c r="AW80" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN81" s="10"/>
+      <c r="AO81" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP81" s="6"/>
+      <c r="AQ81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR81" s="10"/>
+      <c r="AS81" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV81" s="10"/>
+      <c r="AW81" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN82" s="10"/>
+      <c r="AO82" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR82" s="10"/>
+      <c r="AS82" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AV82" s="10"/>
+      <c r="AW82" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
+      <c r="D83" s="4"/>
+      <c r="E83" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7" t="s">
+      <c r="F83" s="6"/>
+      <c r="G83" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11" t="s">
+      <c r="H83" s="10"/>
+      <c r="I83" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="3" t="s">
+      <c r="J83" s="6"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5" t="s">
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="3" t="s">
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN83" s="10"/>
+      <c r="AO83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR83" s="10"/>
+      <c r="AS83" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV83" s="10"/>
+      <c r="AW83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB84" s="14"/>
+      <c r="AC84" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5" t="s">
+      <c r="AF84" s="4"/>
+      <c r="AG84" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ84" s="4"/>
+      <c r="AK84" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN84" s="10"/>
+      <c r="AO84" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP84" s="6"/>
+      <c r="AQ84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR84" s="10"/>
+      <c r="AS84" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AT84" s="6"/>
+      <c r="AU84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV84" s="10"/>
+      <c r="AW84" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX84" s="6"/>
+      <c r="AY84" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="23" t="s">
+    </row>
+    <row r="85" spans="1:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15" t="s">
+      <c r="D85" s="4"/>
+      <c r="E85" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="F85" s="6"/>
+      <c r="G85" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19" t="s">
+      <c r="H85" s="10"/>
+      <c r="I85" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21" t="s">
+      <c r="J85" s="6"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15" t="s">
+      <c r="AB85" s="14"/>
+      <c r="AC85" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="3">
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="3">
         <v>95</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="5">
+      <c r="AF85" s="4"/>
+      <c r="AG85" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="3">
+        <v>95</v>
+      </c>
+      <c r="AJ85" s="4"/>
+      <c r="AK85" s="5">
         <v>94</v>
       </c>
-      <c r="T33" s="6"/>
-    </row>
-    <row r="41" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="3">
+        <v>95</v>
+      </c>
+      <c r="AN85" s="10"/>
+      <c r="AO85" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="3">
+        <v>95</v>
+      </c>
+      <c r="AR85" s="10"/>
+      <c r="AS85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="3">
+        <v>95</v>
+      </c>
+      <c r="AV85" s="10"/>
+      <c r="AW85" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3324,24 +6959,76 @@
     <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="C14:T14"/>
-    <mergeCell ref="C24:T24"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
+  <mergeCells count="65">
+    <mergeCell ref="C76:AX76"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="C37:AX37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="C1:AX1"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C27:AX27"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AP38"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AE2:AX2"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="C14:AX14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3350,10 +7037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="Q2" sqref="Q2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,62 +7048,62 @@
     <col min="1" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>170</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>171</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>173</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>174</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>175</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>176</v>
       </c>
-      <c r="W1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -3440,7 +7127,7 @@
         <v>63</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>39</v>
@@ -3461,18 +7148,18 @@
         <v>100</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X2" s="12">
         <v>0</v>
       </c>
-      <c r="Z2" s="69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI2" s="80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>23</v>
@@ -3511,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U3" s="10">
         <v>100</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="Z3" s="69"/>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI3" s="80"/>
+    </row>
+    <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>25</v>
@@ -3547,10 +7234,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>41</v>
@@ -3565,22 +7252,22 @@
         <v>19</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X4" s="12">
         <v>0</v>
       </c>
-      <c r="Z4" s="69"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI4" s="80"/>
+    </row>
+    <row r="5" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>26</v>
@@ -3619,22 +7306,22 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U5" s="10">
         <v>100</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X5" s="12">
         <v>0</v>
       </c>
-      <c r="Z5" s="69"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI5" s="80"/>
+    </row>
+    <row r="6" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>27</v>
@@ -3673,22 +7360,22 @@
         <v>0</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U6" s="10">
         <v>100</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X6" s="12">
         <v>0</v>
       </c>
-      <c r="Z6" s="69"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI6" s="80"/>
+    </row>
+    <row r="7" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>28</v>
@@ -3727,22 +7414,22 @@
         <v>0</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U7" s="10">
         <v>100</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X7" s="12">
         <v>0</v>
       </c>
-      <c r="Z7" s="69"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI7" s="80"/>
+    </row>
+    <row r="8" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>29</v>
@@ -3781,22 +7468,22 @@
         <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U8" s="10">
         <v>100</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z8" s="69"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="AI8" s="80"/>
+    </row>
+    <row r="9" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>30</v>
@@ -3835,22 +7522,22 @@
         <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X9" s="12">
         <v>0</v>
       </c>
-      <c r="Z9" s="69"/>
-    </row>
-    <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AI9" s="80"/>
+    </row>
+    <row r="10" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -3873,40 +7560,40 @@
         <v>100</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Z10" s="69"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H16" s="28"/>
+      <c r="AI10" s="80"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="28"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="28"/>
+      <c r="H18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Z2:Z10"/>
+    <mergeCell ref="AI2:AI10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3914,10 +7601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD10" sqref="Z1:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,62 +7612,74 @@
     <col min="1" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>170</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>171</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>173</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>174</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>175</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>176</v>
       </c>
-      <c r="W1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>24</v>
@@ -3992,19 +7691,19 @@
         <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>63</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>39</v>
@@ -4025,240 +7724,300 @@
         <v>100</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X2" s="12">
         <v>0</v>
       </c>
-      <c r="Z2" s="70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Z2" s="3">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z3" s="70"/>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR3" s="81"/>
+    </row>
+    <row r="4" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>48</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z4" s="70"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR4" s="81"/>
+    </row>
+    <row r="5" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>66</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>49</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z5" s="70"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR5" s="81"/>
+    </row>
+    <row r="6" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>51</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z6" s="70"/>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR6" s="81"/>
+    </row>
+    <row r="7" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>36</v>
@@ -4270,67 +8029,79 @@
         <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z7" s="70"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR7" s="81"/>
+    </row>
+    <row r="8" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>45</v>
@@ -4342,37 +8113,49 @@
         <v>53</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z8" s="70"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR8" s="81"/>
+    </row>
+    <row r="9" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>62</v>
@@ -4384,37 +8167,49 @@
         <v>70</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>46</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z9" s="70"/>
-    </row>
-    <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR9" s="81"/>
+    </row>
+    <row r="10" spans="1:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
@@ -4432,19 +8227,31 @@
         <v>95</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X10" s="12">
         <v>0</v>
       </c>
-      <c r="Z10" s="70"/>
+      <c r="Z10" s="3">
+        <v>95</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Z2:Z10"/>
+    <mergeCell ref="AR2:AR10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4481,7 +8288,7 @@
       <c r="U2" s="10"/>
       <c r="W2" s="11"/>
       <c r="X2" s="12"/>
-      <c r="Z2" s="71"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
@@ -4500,7 +8307,7 @@
       <c r="U3" s="10"/>
       <c r="W3" s="11"/>
       <c r="X3" s="12"/>
-      <c r="Z3" s="71"/>
+      <c r="Z3" s="82"/>
     </row>
     <row r="4" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -4519,7 +8326,7 @@
       <c r="U4" s="10"/>
       <c r="W4" s="11"/>
       <c r="X4" s="12"/>
-      <c r="Z4" s="71"/>
+      <c r="Z4" s="82"/>
     </row>
     <row r="5" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
@@ -4538,7 +8345,7 @@
       <c r="U5" s="10"/>
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
-      <c r="Z5" s="71"/>
+      <c r="Z5" s="82"/>
     </row>
     <row r="6" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
@@ -4557,7 +8364,7 @@
       <c r="U6" s="10"/>
       <c r="W6" s="11"/>
       <c r="X6" s="12"/>
-      <c r="Z6" s="71"/>
+      <c r="Z6" s="82"/>
     </row>
     <row r="7" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
@@ -4576,7 +8383,7 @@
       <c r="U7" s="10"/>
       <c r="W7" s="11"/>
       <c r="X7" s="12"/>
-      <c r="Z7" s="71"/>
+      <c r="Z7" s="82"/>
     </row>
     <row r="8" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
@@ -4595,7 +8402,7 @@
       <c r="U8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="12"/>
-      <c r="Z8" s="71"/>
+      <c r="Z8" s="82"/>
     </row>
     <row r="9" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -4614,7 +8421,7 @@
       <c r="U9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="12"/>
-      <c r="Z9" s="71"/>
+      <c r="Z9" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4628,8 +8435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,615 +8444,610 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="30">
+        <v>20</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" s="29">
+        <v>95</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" s="29">
+        <v>87</v>
+      </c>
+      <c r="O4" s="30">
+        <v>33</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="30"/>
+    </row>
+    <row r="5" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="29">
+        <v>90</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="F5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="29">
+        <v>100</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="29">
+        <v>100</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="29">
+        <v>100</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="29">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="29">
+        <v>95</v>
+      </c>
+      <c r="J7" s="30">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="29">
+        <v>100</v>
+      </c>
+      <c r="O7" s="30">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="S7" s="29">
+        <v>91</v>
+      </c>
+      <c r="T7" s="30">
+        <v>1</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
-    </row>
-    <row r="3" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="30">
+        <v>40</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="G8" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="T8" s="30">
+        <v>19</v>
+      </c>
+      <c r="U8" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="X3" s="35">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="V8" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="35">
-        <v>87</v>
-      </c>
-      <c r="O4" s="36">
-        <v>33</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="36"/>
-    </row>
-    <row r="5" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="Q9" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="S9" s="38">
+        <v>80</v>
+      </c>
+      <c r="T9" s="39">
+        <v>49</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P10" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="35">
-        <v>90</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="Q10" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="S10" s="38">
+        <v>93</v>
+      </c>
+      <c r="T10" s="39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="35">
-        <v>100</v>
-      </c>
-      <c r="E6" s="36">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="35">
-        <v>100</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="P6" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="35">
-        <v>100</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V6" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" s="35">
-        <v>100</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="35">
-        <v>95</v>
-      </c>
-      <c r="J7" s="36">
-        <v>2</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="35">
-        <v>100</v>
-      </c>
-      <c r="O7" s="36">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="S7" s="35">
-        <v>91</v>
-      </c>
-      <c r="T7" s="36">
-        <v>1</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V7" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="W7" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="35">
-        <v>100</v>
-      </c>
-      <c r="E8" s="36">
-        <v>40</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="S8" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="T8" s="36">
-        <v>19</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="V8" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="W8" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="X8" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y8" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R9" s="33" t="s">
+      <c r="Q11" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="R11" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="S9" s="44">
-        <v>80</v>
-      </c>
-      <c r="T9" s="45">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P10" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="S10" s="44">
-        <v>93</v>
-      </c>
-      <c r="T10" s="45">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P11" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R11" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="T11" s="45">
+      <c r="S11" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="T11" s="39">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="43"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="37"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
